--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1829300.600189102</v>
+        <v>-1832039.030391164</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>146.3307896416302</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>94.24014755885155</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>214.4294038323555</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,10 +823,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>20.29684812141948</v>
+        <v>20.71739991352398</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>231.5033543235504</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.52502338186935</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>12.60997046277585</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>42.65385159021759</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>74.08626620060701</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>146.9290538560011</v>
       </c>
       <c r="D8" t="n">
-        <v>297.0600286511182</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>241.7456373063789</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.0486008011659</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229322</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>18.93832930943002</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>53.07327741456131</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>23.6255456814127</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>120.6730984517104</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113764</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>24.8326660635311</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308927</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3016,7 +3016,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600562</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>663.7633189303847</v>
+        <v>1238.654936657246</v>
       </c>
       <c r="C2" t="n">
-        <v>294.800801989973</v>
+        <v>869.6924197168341</v>
       </c>
       <c r="D2" t="n">
-        <v>294.800801989973</v>
+        <v>869.6924197168341</v>
       </c>
       <c r="E2" t="n">
-        <v>294.800801989973</v>
+        <v>869.6924197168341</v>
       </c>
       <c r="F2" t="n">
-        <v>294.800801989973</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="G2" t="n">
-        <v>294.800801989973</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
         <v>146.9919235640839</v>
@@ -4331,19 +4331,19 @@
         <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723717</v>
+        <v>520.4374513753336</v>
       </c>
       <c r="L2" t="n">
-        <v>692.7231656905637</v>
+        <v>1161.460660995227</v>
       </c>
       <c r="M2" t="n">
-        <v>988.7937322481667</v>
+        <v>1457.53122755283</v>
       </c>
       <c r="N2" t="n">
-        <v>1629.816941868061</v>
+        <v>1763.006333788416</v>
       </c>
       <c r="O2" t="n">
-        <v>1904.933161184695</v>
+        <v>2038.12255310505</v>
       </c>
       <c r="P2" t="n">
         <v>2238.426880394154</v>
@@ -4355,25 +4355,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.334033584003</v>
+        <v>2194.618789397901</v>
       </c>
       <c r="V2" t="n">
-        <v>1793.271146240432</v>
+        <v>2194.618789397901</v>
       </c>
       <c r="W2" t="n">
-        <v>1440.502490970318</v>
+        <v>1841.850134127787</v>
       </c>
       <c r="X2" t="n">
-        <v>1440.502490970318</v>
+        <v>1625.254776721368</v>
       </c>
       <c r="Y2" t="n">
-        <v>1050.363158994506</v>
+        <v>1625.254776721368</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072345</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>532.9594726600656</v>
+        <v>1161.911999152943</v>
       </c>
       <c r="M3" t="n">
-        <v>915.0684808447924</v>
+        <v>1425.851530648431</v>
       </c>
       <c r="N3" t="n">
-        <v>1200.402351278125</v>
+        <v>1711.185401081764</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
         <v>2316.738101020794</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391.354544452375</v>
+        <v>538.6692917402899</v>
       </c>
       <c r="C4" t="n">
-        <v>222.4183615244681</v>
+        <v>369.733108812383</v>
       </c>
       <c r="D4" t="n">
-        <v>72.30172211213232</v>
+        <v>219.6164694000472</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
         <v>51.79985532281972</v>
@@ -4510,28 +4510,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>991.0700018628692</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361123</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="W4" t="n">
-        <v>1021.785139324162</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="X4" t="n">
-        <v>793.7955884261448</v>
+        <v>538.6692917402899</v>
       </c>
       <c r="Y4" t="n">
-        <v>573.0030092826147</v>
+        <v>538.6692917402899</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1435.497185463044</v>
+        <v>863.1054795278208</v>
       </c>
       <c r="C5" t="n">
-        <v>1066.534668522632</v>
+        <v>494.1429625874091</v>
       </c>
       <c r="D5" t="n">
-        <v>708.2689699158816</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="E5" t="n">
-        <v>474.4271978718913</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>128.9317632314551</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104771</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135501</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477376</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2577.255422239192</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2577.255422239192</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.236357502977</v>
+        <v>2323.676194181439</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.236357502977</v>
+        <v>1992.613306837868</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.236357502977</v>
+        <v>1639.844651567754</v>
       </c>
       <c r="X5" t="n">
-        <v>2212.236357502977</v>
+        <v>1639.844651567754</v>
       </c>
       <c r="Y5" t="n">
-        <v>1822.097025527165</v>
+        <v>1249.705319591942</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>426.7768722128337</v>
+        <v>688.5974568552865</v>
       </c>
       <c r="L6" t="n">
-        <v>724.0888213291485</v>
+        <v>1079.007699493406</v>
       </c>
       <c r="M6" t="n">
-        <v>1090.394710821474</v>
+        <v>1445.313588985731</v>
       </c>
       <c r="N6" t="n">
-        <v>1480.804272147217</v>
+        <v>1835.723150311474</v>
       </c>
       <c r="O6" t="n">
-        <v>1855.373690073468</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P6" t="n">
         <v>2420.128558892024</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>219.7760440609304</v>
+        <v>262.8607426369077</v>
       </c>
       <c r="C7" t="n">
-        <v>219.7760440609304</v>
+        <v>262.8607426369077</v>
       </c>
       <c r="D7" t="n">
-        <v>219.7760440609304</v>
+        <v>262.8607426369077</v>
       </c>
       <c r="E7" t="n">
-        <v>219.7760440609304</v>
+        <v>262.8607426369077</v>
       </c>
       <c r="F7" t="n">
         <v>219.7760440609304</v>
@@ -4753,22 +4753,22 @@
         <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1321.927733452886</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="U7" t="n">
-        <v>1032.809956463284</v>
+        <v>1255.744530921303</v>
       </c>
       <c r="V7" t="n">
-        <v>957.9753441394384</v>
+        <v>1001.060042715416</v>
       </c>
       <c r="W7" t="n">
-        <v>668.5581741024778</v>
+        <v>711.6428726784552</v>
       </c>
       <c r="X7" t="n">
-        <v>440.5686232044604</v>
+        <v>483.6533217804379</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.7760440609304</v>
+        <v>262.8607426369077</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1108.724948496402</v>
+        <v>1781.984042947045</v>
       </c>
       <c r="C8" t="n">
-        <v>739.7624315559899</v>
+        <v>1633.570857233913</v>
       </c>
       <c r="D8" t="n">
-        <v>439.7017965548604</v>
+        <v>1633.570857233913</v>
       </c>
       <c r="E8" t="n">
-        <v>439.7017965548604</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F8" t="n">
-        <v>432.7562958056569</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
         <v>421.1148580461929</v>
@@ -4805,7 +4805,7 @@
         <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L8" t="n">
         <v>804.6133007477383</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797415</v>
+        <v>2134.752698217159</v>
       </c>
       <c r="W8" t="n">
-        <v>2258.929878797415</v>
+        <v>1781.984042947045</v>
       </c>
       <c r="X8" t="n">
-        <v>1885.464120536335</v>
+        <v>1781.984042947045</v>
       </c>
       <c r="Y8" t="n">
-        <v>1495.324788560523</v>
+        <v>1781.984042947045</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4881,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431329</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594476</v>
+        <v>599.2586963421437</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951773</v>
+        <v>965.5645858344692</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1529.628621407111</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.5390793310301</v>
+        <v>519.5002132301805</v>
       </c>
       <c r="C10" t="n">
-        <v>346.6028964031232</v>
+        <v>350.5640303022736</v>
       </c>
       <c r="D10" t="n">
-        <v>346.6028964031232</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="E10" t="n">
-        <v>198.6898028207301</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
         <v>51.79985532281972</v>
@@ -4987,25 +4987,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.04909569586</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U10" t="n">
-        <v>1179.861583265174</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="V10" t="n">
-        <v>925.1770950592871</v>
+        <v>972.9149414959414</v>
       </c>
       <c r="W10" t="n">
-        <v>925.1770950592871</v>
+        <v>701.1486780604203</v>
       </c>
       <c r="X10" t="n">
-        <v>697.1875441612698</v>
+        <v>701.1486780604203</v>
       </c>
       <c r="Y10" t="n">
-        <v>697.1875441612698</v>
+        <v>701.1486780604203</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5036,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5048,16 +5048,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,19 +5115,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190825</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>195.0329919651391</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2393.353712454441</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2210.498878109345</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1990.897413132287</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1701.822186476484</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1447.137698270597</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1157.720528233637</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>929.7309773356195</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.7309773356195</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="14">
@@ -5264,19 +5264,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,13 +5525,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1051.622995973711</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>432.9862109052762</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>286.0962634073658</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>118.9001641222457</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2149.810879820877</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942666</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6382,28 +6382,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
         <v>2129.438138565707</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,16 +6652,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,19 +6877,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7084,37 +7084,37 @@
         <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954158</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380737</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311332</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7175,16 +7175,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319333</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D40" t="n">
         <v>656.964603115003</v>
@@ -7324,7 +7324,7 @@
         <v>268.5553036345482</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384025</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7372,10 +7372,10 @@
         <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954153</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>65.99703727571901</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037392</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659682</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>134.53473931349</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>119.3631077669081</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>196.3826133675373</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>94.03868032505511</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>40.04114869769671</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740396</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>175.4085598453534</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>309.1863928326896</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.465101099348471e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>109.6381189187367</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>162.2666558078811</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>85.79822954747961</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22711,10 +22711,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>126.1371145251497</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986293</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>146.5858089828388</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>13.30196929556038</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>122.8084169651565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>46.57372264691739</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>115.4620467826928</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>10.85445046951749</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81152.27790359157</v>
+        <v>81152.27790359156</v>
       </c>
       <c r="C2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="D2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
         <v>100893.3249612508</v>
@@ -26329,7 +26329,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
         <v>100893.3249612508</v>
@@ -26350,7 +26350,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61714.61558823338</v>
+        <v>61714.61558823335</v>
       </c>
       <c r="C4" t="n">
+        <v>129066.7547252479</v>
+      </c>
+      <c r="D4" t="n">
         <v>129066.754725248</v>
-      </c>
-      <c r="D4" t="n">
-        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
@@ -26430,13 +26430,13 @@
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695073</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695024</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695042</v>
       </c>
       <c r="J4" t="n">
         <v>14278.33979478852</v>
@@ -26445,7 +26445,7 @@
         <v>14278.33979478852</v>
       </c>
       <c r="L4" t="n">
-        <v>14278.33979478855</v>
+        <v>14278.33979478854</v>
       </c>
       <c r="M4" t="n">
         <v>14278.33979478852</v>
@@ -26454,10 +26454,10 @@
         <v>14278.33979478854</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.3397947885</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1009590.348457031</v>
+        <v>-1010019.90732362</v>
       </c>
       <c r="C6" t="n">
         <v>-292681.9826436146</v>
@@ -26528,40 +26528,40 @@
         <v>-119917.6228537221</v>
       </c>
       <c r="E6" t="n">
-        <v>-507405.553140102</v>
+        <v>-507440.2910655377</v>
       </c>
       <c r="F6" t="n">
-        <v>-6516.685394351371</v>
+        <v>-6551.423319787078</v>
       </c>
       <c r="G6" t="n">
-        <v>-6516.6853943514</v>
+        <v>-6551.423319787107</v>
       </c>
       <c r="H6" t="n">
-        <v>-6516.685394351458</v>
+        <v>-6551.423319787064</v>
       </c>
       <c r="I6" t="n">
-        <v>-6516.685394351385</v>
+        <v>-6551.423319787078</v>
       </c>
       <c r="J6" t="n">
         <v>-203653.9692353482</v>
       </c>
       <c r="K6" t="n">
-        <v>-14812.2344156683</v>
+        <v>-14812.23441566834</v>
       </c>
       <c r="L6" t="n">
-        <v>-14812.23441566853</v>
+        <v>-14812.23441566851</v>
       </c>
       <c r="M6" t="n">
-        <v>-145696.6913199037</v>
+        <v>-145696.6913199036</v>
       </c>
       <c r="N6" t="n">
         <v>-14812.23441566848</v>
       </c>
       <c r="O6" t="n">
-        <v>-34239.9524093002</v>
+        <v>-34239.95240930023</v>
       </c>
       <c r="P6" t="n">
-        <v>-14812.23441566848</v>
+        <v>-14812.23441566847</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203967</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203967</v>
-      </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>272.2922511535251</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>69.50346729863396</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>125.7165627330452</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>150.4270157487114</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>110.3254383116772</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>102.7671964327137</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>178.051377123221</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>218.3438379150065</v>
       </c>
       <c r="D8" t="n">
-        <v>57.62301296956474</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28059,22 +28059,22 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>44.48096191332678</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>17.47439753542506</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31850,7 +31850,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9244589488886</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>320.9147064709964</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>744.7005224868046</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>595.3857163736978</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>576.057346513631</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>549.9198891312103</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>652.0478969157701</v>
+        <v>573.8098963904295</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O33" t="n">
-        <v>369.1789913099997</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33667,7 +33667,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,16 +33983,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34699,22 +34699,22 @@
         <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>229.426342391876</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M2" t="n">
         <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352464</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>336.8623426358167</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
         <v>315.5952546185461</v>
@@ -34778,22 +34778,22 @@
         <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>385.9686951360877</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>437.5997363488088</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
         <v>276.0148132527188</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.5828603915731</v>
       </c>
       <c r="K5" t="n">
         <v>260.4495531344172</v>
@@ -35015,10 +35015,10 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931442</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>394.3537804425448</v>
       </c>
       <c r="M6" t="n">
         <v>370.005948982147</v>
@@ -35027,10 +35027,10 @@
         <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>378.3529474002535</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
         <v>118.0296862297623</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671838</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174897</v>
@@ -35261,19 +35261,19 @@
         <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>569.761652093578</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225505</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35498,7 +35498,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5827468655553</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>613.3588104034714</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>453.2516824516795</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>433.4611020691866</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>407.3236446867659</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>509.9138629937518</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O33" t="n">
-        <v>226.5827468655553</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,16 +37631,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
